--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lrpap1-Vldlr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lrpap1-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.6042373323352</v>
+        <v>5.147963333333333</v>
       </c>
       <c r="H2">
-        <v>4.6042373323352</v>
+        <v>15.44389</v>
       </c>
       <c r="I2">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="J2">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.141061593183936</v>
+        <v>0.1525076666666667</v>
       </c>
       <c r="N2">
-        <v>0.141061593183936</v>
+        <v>0.457523</v>
       </c>
       <c r="O2">
-        <v>0.04337949802958513</v>
+        <v>0.04260145387029883</v>
       </c>
       <c r="P2">
-        <v>0.04337949802958513</v>
+        <v>0.04260145387029883</v>
       </c>
       <c r="Q2">
-        <v>0.6494810534961586</v>
+        <v>0.7851038760522221</v>
       </c>
       <c r="R2">
-        <v>0.6494810534961586</v>
+        <v>7.065934884469999</v>
       </c>
       <c r="S2">
-        <v>0.003579735726965514</v>
+        <v>0.003757995094448121</v>
       </c>
       <c r="T2">
-        <v>0.003579735726965514</v>
+        <v>0.003757995094448121</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.6042373323352</v>
+        <v>5.147963333333333</v>
       </c>
       <c r="H3">
-        <v>4.6042373323352</v>
+        <v>15.44389</v>
       </c>
       <c r="I3">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="J3">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.82186594909713</v>
+        <v>1.981129333333333</v>
       </c>
       <c r="N3">
-        <v>1.82186594909713</v>
+        <v>5.943388</v>
       </c>
       <c r="O3">
-        <v>0.5602632762411425</v>
+        <v>0.5534081777643695</v>
       </c>
       <c r="P3">
-        <v>0.5602632762411425</v>
+        <v>0.5534081777643695</v>
       </c>
       <c r="Q3">
-        <v>8.388303217343307</v>
+        <v>10.19878116659111</v>
       </c>
       <c r="R3">
-        <v>8.388303217343307</v>
+        <v>91.78903049931999</v>
       </c>
       <c r="S3">
-        <v>0.04623369466145821</v>
+        <v>0.04881770522662648</v>
       </c>
       <c r="T3">
-        <v>0.04623369466145821</v>
+        <v>0.04881770522662648</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.6042373323352</v>
+        <v>5.147963333333333</v>
       </c>
       <c r="H4">
-        <v>4.6042373323352</v>
+        <v>15.44389</v>
       </c>
       <c r="I4">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="J4">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.28887571942867</v>
+        <v>0.047446</v>
       </c>
       <c r="N4">
-        <v>1.28887571942867</v>
+        <v>0.142338</v>
       </c>
       <c r="O4">
-        <v>0.3963572257292723</v>
+        <v>0.01325355390000195</v>
       </c>
       <c r="P4">
-        <v>0.3963572257292723</v>
+        <v>0.01325355390000196</v>
       </c>
       <c r="Q4">
-        <v>5.934289704133871</v>
+        <v>0.2442502683133333</v>
       </c>
       <c r="R4">
-        <v>5.934289704133871</v>
+        <v>2.19825241482</v>
       </c>
       <c r="S4">
-        <v>0.03270794236983431</v>
+        <v>0.00116913358618814</v>
       </c>
       <c r="T4">
-        <v>0.03270794236983431</v>
+        <v>0.001169133586188141</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.512913319564</v>
+        <v>5.147963333333333</v>
       </c>
       <c r="H5">
-        <v>10.512913319564</v>
+        <v>15.44389</v>
       </c>
       <c r="I5">
-        <v>0.188422093866954</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="J5">
-        <v>0.188422093866954</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.141061593183936</v>
+        <v>0.013399</v>
       </c>
       <c r="N5">
-        <v>0.141061593183936</v>
+        <v>0.040197</v>
       </c>
       <c r="O5">
-        <v>0.04337949802958513</v>
+        <v>0.003742873344562792</v>
       </c>
       <c r="P5">
-        <v>0.04337949802958513</v>
+        <v>0.003742873344562792</v>
       </c>
       <c r="Q5">
-        <v>1.482968301862319</v>
+        <v>0.06897756070333334</v>
       </c>
       <c r="R5">
-        <v>1.482968301862319</v>
+        <v>0.62079804633</v>
       </c>
       <c r="S5">
-        <v>0.008173655849631834</v>
+        <v>0.0003301694752209859</v>
       </c>
       <c r="T5">
-        <v>0.008173655849631834</v>
+        <v>0.0003301694752209859</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.512913319564</v>
+        <v>5.147963333333333</v>
       </c>
       <c r="H6">
-        <v>10.512913319564</v>
+        <v>15.44389</v>
       </c>
       <c r="I6">
-        <v>0.188422093866954</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="J6">
-        <v>0.188422093866954</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.82186594909713</v>
+        <v>1.385388</v>
       </c>
       <c r="N6">
-        <v>1.82186594909713</v>
+        <v>4.156164</v>
       </c>
       <c r="O6">
-        <v>0.5602632762411425</v>
+        <v>0.386993941120767</v>
       </c>
       <c r="P6">
-        <v>0.5602632762411425</v>
+        <v>0.386993941120767</v>
       </c>
       <c r="Q6">
-        <v>19.15311880272333</v>
+        <v>7.13192662644</v>
       </c>
       <c r="R6">
-        <v>19.15311880272333</v>
+        <v>64.18733963796001</v>
       </c>
       <c r="S6">
-        <v>0.1055659796261157</v>
+        <v>0.03413783334110391</v>
       </c>
       <c r="T6">
-        <v>0.1055659796261157</v>
+        <v>0.03413783334110391</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.512913319564</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H7">
-        <v>10.512913319564</v>
+        <v>31.579463</v>
       </c>
       <c r="I7">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="J7">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.28887571942867</v>
+        <v>0.1525076666666667</v>
       </c>
       <c r="N7">
-        <v>1.28887571942867</v>
+        <v>0.457523</v>
       </c>
       <c r="O7">
-        <v>0.3963572257292723</v>
+        <v>0.04260145387029883</v>
       </c>
       <c r="P7">
-        <v>0.3963572257292723</v>
+        <v>0.04260145387029883</v>
       </c>
       <c r="Q7">
-        <v>13.5498387180443</v>
+        <v>1.605370072238778</v>
       </c>
       <c r="R7">
-        <v>13.5498387180443</v>
+        <v>14.448330650149</v>
       </c>
       <c r="S7">
-        <v>0.07468245839120642</v>
+        <v>0.00768429890651293</v>
       </c>
       <c r="T7">
-        <v>0.07468245839120642</v>
+        <v>0.00768429890651293</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,122 +906,122 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.5157502220847</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H8">
-        <v>14.5157502220847</v>
+        <v>31.579463</v>
       </c>
       <c r="I8">
-        <v>0.2601646154358603</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="J8">
-        <v>0.2601646154358603</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.141061593183936</v>
+        <v>1.981129333333333</v>
       </c>
       <c r="N8">
-        <v>0.141061593183936</v>
+        <v>5.943388</v>
       </c>
       <c r="O8">
-        <v>0.04337949802958513</v>
+        <v>0.5534081777643695</v>
       </c>
       <c r="P8">
-        <v>0.04337949802958513</v>
+        <v>0.5534081777643695</v>
       </c>
       <c r="Q8">
-        <v>2.047614852587341</v>
+        <v>20.85433349340489</v>
       </c>
       <c r="R8">
-        <v>2.047614852587341</v>
+        <v>187.689001440644</v>
       </c>
       <c r="S8">
-        <v>0.01128581042266767</v>
+        <v>0.0998218011102875</v>
       </c>
       <c r="T8">
-        <v>0.01128581042266767</v>
+        <v>0.0998218011102875</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.5157502220847</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H9">
-        <v>14.5157502220847</v>
+        <v>31.579463</v>
       </c>
       <c r="I9">
-        <v>0.2601646154358603</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="J9">
-        <v>0.2601646154358603</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.82186594909713</v>
+        <v>0.047446</v>
       </c>
       <c r="N9">
-        <v>1.82186594909713</v>
+        <v>0.142338</v>
       </c>
       <c r="O9">
-        <v>0.5602632762411425</v>
+        <v>0.01325355390000195</v>
       </c>
       <c r="P9">
-        <v>0.5602632762411425</v>
+        <v>0.01325355390000196</v>
       </c>
       <c r="Q9">
-        <v>26.44575105521522</v>
+        <v>0.4994397338326667</v>
       </c>
       <c r="R9">
-        <v>26.44575105521522</v>
+        <v>4.494957604494</v>
       </c>
       <c r="S9">
-        <v>0.145760679806112</v>
+        <v>0.0023906289689376</v>
       </c>
       <c r="T9">
-        <v>0.145760679806112</v>
+        <v>0.0023906289689376</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.5157502220847</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H10">
-        <v>14.5157502220847</v>
+        <v>31.579463</v>
       </c>
       <c r="I10">
-        <v>0.2601646154358603</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="J10">
-        <v>0.2601646154358603</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.28887571942867</v>
+        <v>0.013399</v>
       </c>
       <c r="N10">
-        <v>1.28887571942867</v>
+        <v>0.040197</v>
       </c>
       <c r="O10">
-        <v>0.3963572257292723</v>
+        <v>0.003742873344562792</v>
       </c>
       <c r="P10">
-        <v>0.3963572257292723</v>
+        <v>0.003742873344562792</v>
       </c>
       <c r="Q10">
-        <v>18.70899801053629</v>
+        <v>0.1410444082456667</v>
       </c>
       <c r="R10">
-        <v>18.70899801053629</v>
+        <v>1.269399674211</v>
       </c>
       <c r="S10">
-        <v>0.1031181252070806</v>
+        <v>0.0006751261972515049</v>
       </c>
       <c r="T10">
-        <v>0.1031181252070806</v>
+        <v>0.0006751261972515049</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.1083783579714</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H11">
-        <v>15.1083783579714</v>
+        <v>31.579463</v>
       </c>
       <c r="I11">
-        <v>0.2707862415117112</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="J11">
-        <v>0.2707862415117112</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.141061593183936</v>
+        <v>1.385388</v>
       </c>
       <c r="N11">
-        <v>0.141061593183936</v>
+        <v>4.156164</v>
       </c>
       <c r="O11">
-        <v>0.04337949802958513</v>
+        <v>0.386993941120767</v>
       </c>
       <c r="P11">
-        <v>0.04337949802958513</v>
+        <v>0.386993941120767</v>
       </c>
       <c r="Q11">
-        <v>2.131211921601145</v>
+        <v>14.583269695548</v>
       </c>
       <c r="R11">
-        <v>2.131211921601145</v>
+        <v>131.249427259932</v>
       </c>
       <c r="S11">
-        <v>0.01174657123009604</v>
+        <v>0.06980459229478826</v>
       </c>
       <c r="T11">
-        <v>0.01174657123009604</v>
+        <v>0.06980459229478826</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.1083783579714</v>
+        <v>15.86906433333333</v>
       </c>
       <c r="H12">
-        <v>15.1083783579714</v>
+        <v>47.607193</v>
       </c>
       <c r="I12">
-        <v>0.2707862415117112</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="J12">
-        <v>0.2707862415117112</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.82186594909713</v>
+        <v>0.1525076666666667</v>
       </c>
       <c r="N12">
-        <v>1.82186594909713</v>
+        <v>0.457523</v>
       </c>
       <c r="O12">
-        <v>0.5602632762411425</v>
+        <v>0.04260145387029883</v>
       </c>
       <c r="P12">
-        <v>0.5602632762411425</v>
+        <v>0.04260145387029883</v>
       </c>
       <c r="Q12">
-        <v>27.5254400764641</v>
+        <v>2.420153973659889</v>
       </c>
       <c r="R12">
-        <v>27.5254400764641</v>
+        <v>21.781385762939</v>
       </c>
       <c r="S12">
-        <v>0.1517115868303766</v>
+        <v>0.01158436104857293</v>
       </c>
       <c r="T12">
-        <v>0.1517115868303766</v>
+        <v>0.01158436104857293</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.1083783579714</v>
+        <v>15.86906433333333</v>
       </c>
       <c r="H13">
-        <v>15.1083783579714</v>
+        <v>47.607193</v>
       </c>
       <c r="I13">
-        <v>0.2707862415117112</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="J13">
-        <v>0.2707862415117112</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.28887571942867</v>
+        <v>1.981129333333333</v>
       </c>
       <c r="N13">
-        <v>1.28887571942867</v>
+        <v>5.943388</v>
       </c>
       <c r="O13">
-        <v>0.3963572257292723</v>
+        <v>0.5534081777643695</v>
       </c>
       <c r="P13">
-        <v>0.3963572257292723</v>
+        <v>0.5534081777643695</v>
       </c>
       <c r="Q13">
-        <v>19.47282202553093</v>
+        <v>31.43866884332045</v>
       </c>
       <c r="R13">
-        <v>19.47282202553093</v>
+        <v>282.948019589884</v>
       </c>
       <c r="S13">
-        <v>0.1073280834512386</v>
+        <v>0.150485008281017</v>
       </c>
       <c r="T13">
-        <v>0.1073280834512386</v>
+        <v>0.150485008281017</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.70442513609964</v>
+        <v>15.86906433333333</v>
       </c>
       <c r="H14">
-        <v>5.70442513609964</v>
+        <v>47.607193</v>
       </c>
       <c r="I14">
-        <v>0.1022399496484914</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="J14">
-        <v>0.1022399496484914</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.141061593183936</v>
+        <v>0.047446</v>
       </c>
       <c r="N14">
-        <v>0.141061593183936</v>
+        <v>0.142338</v>
       </c>
       <c r="O14">
-        <v>0.04337949802958513</v>
+        <v>0.01325355390000195</v>
       </c>
       <c r="P14">
-        <v>0.04337949802958513</v>
+        <v>0.01325355390000196</v>
       </c>
       <c r="Q14">
-        <v>0.8046752978967061</v>
+        <v>0.7529236263593333</v>
       </c>
       <c r="R14">
-        <v>0.8046752978967061</v>
+        <v>6.776312637234</v>
       </c>
       <c r="S14">
-        <v>0.004435117694321616</v>
+        <v>0.003603960419327057</v>
       </c>
       <c r="T14">
-        <v>0.004435117694321616</v>
+        <v>0.003603960419327058</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.70442513609964</v>
+        <v>15.86906433333333</v>
       </c>
       <c r="H15">
-        <v>5.70442513609964</v>
+        <v>47.607193</v>
       </c>
       <c r="I15">
-        <v>0.1022399496484914</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="J15">
-        <v>0.1022399496484914</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>1.82186594909713</v>
+        <v>0.013399</v>
       </c>
       <c r="N15">
-        <v>1.82186594909713</v>
+        <v>0.040197</v>
       </c>
       <c r="O15">
-        <v>0.5602632762411425</v>
+        <v>0.003742873344562792</v>
       </c>
       <c r="P15">
-        <v>0.5602632762411425</v>
+        <v>0.003742873344562792</v>
       </c>
       <c r="Q15">
-        <v>10.3926979146337</v>
+        <v>0.2126295930023334</v>
       </c>
       <c r="R15">
-        <v>10.3926979146337</v>
+        <v>1.913666337021</v>
       </c>
       <c r="S15">
-        <v>0.05728128915279324</v>
+        <v>0.001017777381835418</v>
       </c>
       <c r="T15">
-        <v>0.05728128915279324</v>
+        <v>0.001017777381835418</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1405,57 +1405,57 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.70442513609964</v>
+        <v>15.86906433333333</v>
       </c>
       <c r="H16">
-        <v>5.70442513609964</v>
+        <v>47.607193</v>
       </c>
       <c r="I16">
-        <v>0.1022399496484914</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="J16">
-        <v>0.1022399496484914</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.28887571942867</v>
+        <v>1.385388</v>
       </c>
       <c r="N16">
-        <v>1.28887571942867</v>
+        <v>4.156164</v>
       </c>
       <c r="O16">
-        <v>0.3963572257292723</v>
+        <v>0.386993941120767</v>
       </c>
       <c r="P16">
-        <v>0.3963572257292723</v>
+        <v>0.386993941120767</v>
       </c>
       <c r="Q16">
-        <v>7.352295051217411</v>
+        <v>21.984811298628</v>
       </c>
       <c r="R16">
-        <v>7.352295051217411</v>
+        <v>197.863301687652</v>
       </c>
       <c r="S16">
-        <v>0.04052354280137654</v>
+        <v>0.1052329704803497</v>
       </c>
       <c r="T16">
-        <v>0.04052354280137654</v>
+        <v>0.1052329704803497</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,57 +1467,57 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.34877866633504</v>
+        <v>15.12051333333333</v>
       </c>
       <c r="H17">
-        <v>5.34877866633504</v>
+        <v>45.36154</v>
       </c>
       <c r="I17">
-        <v>0.09586572677872504</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="J17">
-        <v>0.09586572677872504</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.141061593183936</v>
+        <v>0.1525076666666667</v>
       </c>
       <c r="N17">
-        <v>0.141061593183936</v>
+        <v>0.457523</v>
       </c>
       <c r="O17">
-        <v>0.04337949802958513</v>
+        <v>0.04260145387029883</v>
       </c>
       <c r="P17">
-        <v>0.04337949802958513</v>
+        <v>0.04260145387029883</v>
       </c>
       <c r="Q17">
-        <v>0.7545072402614691</v>
+        <v>2.305994207268889</v>
       </c>
       <c r="R17">
-        <v>0.7545072402614691</v>
+        <v>20.75394786542</v>
       </c>
       <c r="S17">
-        <v>0.004158607105902449</v>
+        <v>0.01103792145609767</v>
       </c>
       <c r="T17">
-        <v>0.004158607105902449</v>
+        <v>0.01103792145609767</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,114 +1529,858 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.34877866633504</v>
+        <v>15.12051333333333</v>
       </c>
       <c r="H18">
-        <v>5.34877866633504</v>
+        <v>45.36154</v>
       </c>
       <c r="I18">
-        <v>0.09586572677872504</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="J18">
-        <v>0.09586572677872504</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.82186594909713</v>
+        <v>1.981129333333333</v>
       </c>
       <c r="N18">
-        <v>1.82186594909713</v>
+        <v>5.943388</v>
       </c>
       <c r="O18">
-        <v>0.5602632762411425</v>
+        <v>0.5534081777643695</v>
       </c>
       <c r="P18">
-        <v>0.5602632762411425</v>
+        <v>0.5534081777643695</v>
       </c>
       <c r="Q18">
-        <v>9.744757721452968</v>
+        <v>29.95569249972444</v>
       </c>
       <c r="R18">
-        <v>9.744757721452968</v>
+        <v>269.60123249752</v>
       </c>
       <c r="S18">
-        <v>0.05371004616428671</v>
+        <v>0.1433865618277407</v>
       </c>
       <c r="T18">
-        <v>0.05371004616428671</v>
+        <v>0.1433865618277407</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>15.12051333333333</v>
+      </c>
+      <c r="H19">
+        <v>45.36154</v>
+      </c>
+      <c r="I19">
+        <v>0.2590972948881719</v>
+      </c>
+      <c r="J19">
+        <v>0.2590972948881719</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.047446</v>
+      </c>
+      <c r="N19">
+        <v>0.142338</v>
+      </c>
+      <c r="O19">
+        <v>0.01325355390000195</v>
+      </c>
+      <c r="P19">
+        <v>0.01325355390000196</v>
+      </c>
+      <c r="Q19">
+        <v>0.7174078756133333</v>
+      </c>
+      <c r="R19">
+        <v>6.456670880519999</v>
+      </c>
+      <c r="S19">
+        <v>0.003433959963145087</v>
+      </c>
+      <c r="T19">
+        <v>0.003433959963145087</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>15.12051333333333</v>
+      </c>
+      <c r="H20">
+        <v>45.36154</v>
+      </c>
+      <c r="I20">
+        <v>0.2590972948881719</v>
+      </c>
+      <c r="J20">
+        <v>0.2590972948881719</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.013399</v>
+      </c>
+      <c r="N20">
+        <v>0.040197</v>
+      </c>
+      <c r="O20">
+        <v>0.003742873344562792</v>
+      </c>
+      <c r="P20">
+        <v>0.003742873344562792</v>
+      </c>
+      <c r="Q20">
+        <v>0.2025997581533333</v>
+      </c>
+      <c r="R20">
+        <v>1.82339782338</v>
+      </c>
+      <c r="S20">
+        <v>0.000969768358685264</v>
+      </c>
+      <c r="T20">
+        <v>0.000969768358685264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>15.12051333333333</v>
+      </c>
+      <c r="H21">
+        <v>45.36154</v>
+      </c>
+      <c r="I21">
+        <v>0.2590972948881719</v>
+      </c>
+      <c r="J21">
+        <v>0.2590972948881719</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.385388</v>
+      </c>
+      <c r="N21">
+        <v>4.156164</v>
+      </c>
+      <c r="O21">
+        <v>0.386993941120767</v>
+      </c>
+      <c r="P21">
+        <v>0.386993941120767</v>
+      </c>
+      <c r="Q21">
+        <v>20.94777772584</v>
+      </c>
+      <c r="R21">
+        <v>188.52999953256</v>
+      </c>
+      <c r="S21">
+        <v>0.1002690832825032</v>
+      </c>
+      <c r="T21">
+        <v>0.1002690832825032</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5.843775333333333</v>
+      </c>
+      <c r="H22">
+        <v>17.531326</v>
+      </c>
+      <c r="I22">
+        <v>0.1001359112235315</v>
+      </c>
+      <c r="J22">
+        <v>0.1001359112235316</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.1525076666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.457523</v>
+      </c>
+      <c r="O22">
+        <v>0.04260145387029883</v>
+      </c>
+      <c r="P22">
+        <v>0.04260145387029883</v>
+      </c>
+      <c r="Q22">
+        <v>0.8912205406108888</v>
+      </c>
+      <c r="R22">
+        <v>8.020984865497999</v>
+      </c>
+      <c r="S22">
+        <v>0.004265935402749619</v>
+      </c>
+      <c r="T22">
+        <v>0.004265935402749619</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5.843775333333333</v>
+      </c>
+      <c r="H23">
+        <v>17.531326</v>
+      </c>
+      <c r="I23">
+        <v>0.1001359112235315</v>
+      </c>
+      <c r="J23">
+        <v>0.1001359112235316</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.981129333333333</v>
+      </c>
+      <c r="N23">
+        <v>5.943388</v>
+      </c>
+      <c r="O23">
+        <v>0.5534081777643695</v>
+      </c>
+      <c r="P23">
+        <v>0.5534081777643695</v>
+      </c>
+      <c r="Q23">
+        <v>11.57727473027644</v>
+      </c>
+      <c r="R23">
+        <v>104.195472572488</v>
+      </c>
+      <c r="S23">
+        <v>0.05541603215898926</v>
+      </c>
+      <c r="T23">
+        <v>0.05541603215898927</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5.843775333333333</v>
+      </c>
+      <c r="H24">
+        <v>17.531326</v>
+      </c>
+      <c r="I24">
+        <v>0.1001359112235315</v>
+      </c>
+      <c r="J24">
+        <v>0.1001359112235316</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.047446</v>
+      </c>
+      <c r="N24">
+        <v>0.142338</v>
+      </c>
+      <c r="O24">
+        <v>0.01325355390000195</v>
+      </c>
+      <c r="P24">
+        <v>0.01325355390000196</v>
+      </c>
+      <c r="Q24">
+        <v>0.2772637644653333</v>
+      </c>
+      <c r="R24">
+        <v>2.495373880188</v>
+      </c>
+      <c r="S24">
+        <v>0.001327156696726886</v>
+      </c>
+      <c r="T24">
+        <v>0.001327156696726886</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.843775333333333</v>
+      </c>
+      <c r="H25">
+        <v>17.531326</v>
+      </c>
+      <c r="I25">
+        <v>0.1001359112235315</v>
+      </c>
+      <c r="J25">
+        <v>0.1001359112235316</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.013399</v>
+      </c>
+      <c r="N25">
+        <v>0.040197</v>
+      </c>
+      <c r="O25">
+        <v>0.003742873344562792</v>
+      </c>
+      <c r="P25">
+        <v>0.003742873344562792</v>
+      </c>
+      <c r="Q25">
+        <v>0.07830074569133334</v>
+      </c>
+      <c r="R25">
+        <v>0.704706711222</v>
+      </c>
+      <c r="S25">
+        <v>0.0003747960329520624</v>
+      </c>
+      <c r="T25">
+        <v>0.0003747960329520624</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>5.34877866633504</v>
-      </c>
-      <c r="H19">
-        <v>5.34877866633504</v>
-      </c>
-      <c r="I19">
-        <v>0.09586572677872504</v>
-      </c>
-      <c r="J19">
-        <v>0.09586572677872504</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.28887571942867</v>
-      </c>
-      <c r="N19">
-        <v>1.28887571942867</v>
-      </c>
-      <c r="O19">
-        <v>0.3963572257292723</v>
-      </c>
-      <c r="P19">
-        <v>0.3963572257292723</v>
-      </c>
-      <c r="Q19">
-        <v>6.893910951637296</v>
-      </c>
-      <c r="R19">
-        <v>6.893910951637296</v>
-      </c>
-      <c r="S19">
-        <v>0.03799707350853587</v>
-      </c>
-      <c r="T19">
-        <v>0.03799707350853587</v>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.843775333333333</v>
+      </c>
+      <c r="H26">
+        <v>17.531326</v>
+      </c>
+      <c r="I26">
+        <v>0.1001359112235315</v>
+      </c>
+      <c r="J26">
+        <v>0.1001359112235316</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.385388</v>
+      </c>
+      <c r="N26">
+        <v>4.156164</v>
+      </c>
+      <c r="O26">
+        <v>0.386993941120767</v>
+      </c>
+      <c r="P26">
+        <v>0.386993941120767</v>
+      </c>
+      <c r="Q26">
+        <v>8.095896221496</v>
+      </c>
+      <c r="R26">
+        <v>72.86306599346401</v>
+      </c>
+      <c r="S26">
+        <v>0.03875199093211372</v>
+      </c>
+      <c r="T26">
+        <v>0.03875199093211373</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>5.850633666666667</v>
+      </c>
+      <c r="H27">
+        <v>17.551901</v>
+      </c>
+      <c r="I27">
+        <v>0.100253432075829</v>
+      </c>
+      <c r="J27">
+        <v>0.100253432075829</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.1525076666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.457523</v>
+      </c>
+      <c r="O27">
+        <v>0.04260145387029883</v>
+      </c>
+      <c r="P27">
+        <v>0.04260145387029883</v>
+      </c>
+      <c r="Q27">
+        <v>0.8922664890247778</v>
+      </c>
+      <c r="R27">
+        <v>8.030398401223</v>
+      </c>
+      <c r="S27">
+        <v>0.004270941961917566</v>
+      </c>
+      <c r="T27">
+        <v>0.004270941961917566</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>5.850633666666667</v>
+      </c>
+      <c r="H28">
+        <v>17.551901</v>
+      </c>
+      <c r="I28">
+        <v>0.100253432075829</v>
+      </c>
+      <c r="J28">
+        <v>0.100253432075829</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.981129333333333</v>
+      </c>
+      <c r="N28">
+        <v>5.943388</v>
+      </c>
+      <c r="O28">
+        <v>0.5534081777643695</v>
+      </c>
+      <c r="P28">
+        <v>0.5534081777643695</v>
+      </c>
+      <c r="Q28">
+        <v>11.59086197562089</v>
+      </c>
+      <c r="R28">
+        <v>104.317757780588</v>
+      </c>
+      <c r="S28">
+        <v>0.05548106915970851</v>
+      </c>
+      <c r="T28">
+        <v>0.05548106915970851</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>5.850633666666667</v>
+      </c>
+      <c r="H29">
+        <v>17.551901</v>
+      </c>
+      <c r="I29">
+        <v>0.100253432075829</v>
+      </c>
+      <c r="J29">
+        <v>0.100253432075829</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.047446</v>
+      </c>
+      <c r="N29">
+        <v>0.142338</v>
+      </c>
+      <c r="O29">
+        <v>0.01325355390000195</v>
+      </c>
+      <c r="P29">
+        <v>0.01325355390000196</v>
+      </c>
+      <c r="Q29">
+        <v>0.2775891649486666</v>
+      </c>
+      <c r="R29">
+        <v>2.498302484538</v>
+      </c>
+      <c r="S29">
+        <v>0.001328714265677184</v>
+      </c>
+      <c r="T29">
+        <v>0.001328714265677185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>5.850633666666667</v>
+      </c>
+      <c r="H30">
+        <v>17.551901</v>
+      </c>
+      <c r="I30">
+        <v>0.100253432075829</v>
+      </c>
+      <c r="J30">
+        <v>0.100253432075829</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.013399</v>
+      </c>
+      <c r="N30">
+        <v>0.040197</v>
+      </c>
+      <c r="O30">
+        <v>0.003742873344562792</v>
+      </c>
+      <c r="P30">
+        <v>0.003742873344562792</v>
+      </c>
+      <c r="Q30">
+        <v>0.07839264049966668</v>
+      </c>
+      <c r="R30">
+        <v>0.7055337644970001</v>
+      </c>
+      <c r="S30">
+        <v>0.0003752358986175568</v>
+      </c>
+      <c r="T30">
+        <v>0.0003752358986175568</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>5.850633666666667</v>
+      </c>
+      <c r="H31">
+        <v>17.551901</v>
+      </c>
+      <c r="I31">
+        <v>0.100253432075829</v>
+      </c>
+      <c r="J31">
+        <v>0.100253432075829</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.385388</v>
+      </c>
+      <c r="N31">
+        <v>4.156164</v>
+      </c>
+      <c r="O31">
+        <v>0.386993941120767</v>
+      </c>
+      <c r="P31">
+        <v>0.386993941120767</v>
+      </c>
+      <c r="Q31">
+        <v>8.105397674196</v>
+      </c>
+      <c r="R31">
+        <v>72.94857906776402</v>
+      </c>
+      <c r="S31">
+        <v>0.03879747078990818</v>
+      </c>
+      <c r="T31">
+        <v>0.03879747078990818</v>
       </c>
     </row>
   </sheetData>
